--- a/Code/Results/Cases/Case_0_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.207905671575036</v>
+        <v>12.03168596926108</v>
       </c>
       <c r="D2">
-        <v>2.139751140898825</v>
+        <v>2.904077580570493</v>
       </c>
       <c r="E2">
-        <v>6.401837090030557</v>
+        <v>11.56357016728354</v>
       </c>
       <c r="F2">
-        <v>49.0539356155612</v>
+        <v>66.46222461289308</v>
       </c>
       <c r="G2">
-        <v>2.1639358460454</v>
+        <v>3.859358581380337</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.680502444439015</v>
+        <v>11.67077120899831</v>
       </c>
       <c r="K2">
-        <v>25.73502150275182</v>
+        <v>30.71353641962546</v>
       </c>
       <c r="L2">
-        <v>4.670996581517804</v>
+        <v>8.270434650084781</v>
       </c>
       <c r="M2">
-        <v>19.49835823844374</v>
+        <v>27.51952848176111</v>
       </c>
       <c r="N2">
-        <v>16.36975037973734</v>
+        <v>24.7244758906123</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.981062089295567</v>
+        <v>12.0300295481218</v>
       </c>
       <c r="D3">
-        <v>2.206686045524598</v>
+        <v>2.918247984212446</v>
       </c>
       <c r="E3">
-        <v>6.413838109382571</v>
+        <v>11.58634980321889</v>
       </c>
       <c r="F3">
-        <v>47.91583325095507</v>
+        <v>66.44751764270458</v>
       </c>
       <c r="G3">
-        <v>2.177606237171001</v>
+        <v>3.864102976157008</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.732077216990369</v>
+        <v>11.69770104946853</v>
       </c>
       <c r="K3">
-        <v>24.45963438886454</v>
+        <v>30.5620569267584</v>
       </c>
       <c r="L3">
-        <v>4.681820428729862</v>
+        <v>8.276553785760727</v>
       </c>
       <c r="M3">
-        <v>18.81541724078971</v>
+        <v>27.49003223578289</v>
       </c>
       <c r="N3">
-        <v>16.62132957754958</v>
+        <v>24.79068447089651</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.845355055385225</v>
+        <v>12.03136910159975</v>
       </c>
       <c r="D4">
-        <v>2.248792903736957</v>
+        <v>2.927352279820081</v>
       </c>
       <c r="E4">
-        <v>6.42351881541147</v>
+        <v>11.60147443058182</v>
       </c>
       <c r="F4">
-        <v>47.25349664871226</v>
+        <v>66.45274908543676</v>
       </c>
       <c r="G4">
-        <v>2.186161112725605</v>
+        <v>3.867164866412808</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.765966750113019</v>
+        <v>11.71534830569874</v>
       </c>
       <c r="K4">
-        <v>23.66803444564312</v>
+        <v>30.47660953590291</v>
       </c>
       <c r="L4">
-        <v>4.688874809017389</v>
+        <v>8.280539600124758</v>
       </c>
       <c r="M4">
-        <v>18.4007892920067</v>
+        <v>27.47774069103881</v>
       </c>
       <c r="N4">
-        <v>16.77967387048302</v>
+        <v>24.83339750457418</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.790971740704833</v>
+        <v>12.03250757667621</v>
       </c>
       <c r="D5">
-        <v>2.26619020372794</v>
+        <v>2.931163584074031</v>
       </c>
       <c r="E5">
-        <v>6.428032784164042</v>
+        <v>11.60792448270976</v>
       </c>
       <c r="F5">
-        <v>46.99252608779961</v>
+        <v>66.45845961291427</v>
       </c>
       <c r="G5">
-        <v>2.189692014460191</v>
+        <v>3.868450187912197</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.780327056243525</v>
+        <v>11.72281989401679</v>
       </c>
       <c r="K5">
-        <v>23.34359710875679</v>
+        <v>30.44371441908522</v>
       </c>
       <c r="L5">
-        <v>4.691851510652644</v>
+        <v>8.282221516609113</v>
       </c>
       <c r="M5">
-        <v>18.2331286967743</v>
+        <v>27.47419754107639</v>
       </c>
       <c r="N5">
-        <v>16.84518577044862</v>
+        <v>24.85132226543892</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.781997533669228</v>
+        <v>12.03273240588538</v>
       </c>
       <c r="D6">
-        <v>2.269093069304899</v>
+        <v>2.931802555004288</v>
       </c>
       <c r="E6">
-        <v>6.428816345714933</v>
+        <v>11.60901283696563</v>
       </c>
       <c r="F6">
-        <v>46.94972526466633</v>
+        <v>66.45962372786208</v>
       </c>
       <c r="G6">
-        <v>2.190281134259469</v>
+        <v>3.868665888668062</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.782744558905042</v>
+        <v>11.72407748331712</v>
       </c>
       <c r="K6">
-        <v>23.28962242002012</v>
+        <v>30.43836914269263</v>
       </c>
       <c r="L6">
-        <v>4.692351931181641</v>
+        <v>8.282504285417859</v>
       </c>
       <c r="M6">
-        <v>18.20537149660844</v>
+        <v>27.47369778421371</v>
       </c>
       <c r="N6">
-        <v>16.85612384668671</v>
+        <v>24.85433001585317</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.844617876225951</v>
+        <v>12.03138205624531</v>
       </c>
       <c r="D7">
-        <v>2.249026580604388</v>
+        <v>2.92740327085269</v>
       </c>
       <c r="E7">
-        <v>6.423577404229325</v>
+        <v>11.60156025692355</v>
       </c>
       <c r="F7">
-        <v>47.24994122297007</v>
+        <v>66.4528116209144</v>
       </c>
       <c r="G7">
-        <v>2.186208545369415</v>
+        <v>3.867182048354507</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.766158201926363</v>
+        <v>11.71544793498931</v>
       </c>
       <c r="K7">
-        <v>23.66366604234524</v>
+        <v>30.47615807543935</v>
       </c>
       <c r="L7">
-        <v>4.688914541763436</v>
+        <v>8.280562049326164</v>
       </c>
       <c r="M7">
-        <v>18.39852270712068</v>
+        <v>27.47768696953299</v>
       </c>
       <c r="N7">
-        <v>16.78055338107409</v>
+        <v>24.83363714242247</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.128957912486065</v>
+        <v>12.03062580394368</v>
       </c>
       <c r="D8">
-        <v>2.162609962411874</v>
+        <v>2.908879604870329</v>
       </c>
       <c r="E8">
-        <v>6.405487450846612</v>
+        <v>11.57118874232892</v>
       </c>
       <c r="F8">
-        <v>48.65380616481881</v>
+        <v>66.4541896702564</v>
       </c>
       <c r="G8">
-        <v>2.168618584220899</v>
+        <v>3.8609636568892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.697818519026096</v>
+        <v>11.67982608160458</v>
       </c>
       <c r="K8">
-        <v>25.29717985380672</v>
+        <v>30.6597520954478</v>
       </c>
       <c r="L8">
-        <v>4.674643360358237</v>
+        <v>8.272497176750626</v>
       </c>
       <c r="M8">
-        <v>19.26196992485355</v>
+        <v>27.50815213604857</v>
       </c>
       <c r="N8">
-        <v>16.45569706669766</v>
+        <v>24.74687731695053</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.714413241544914</v>
+        <v>12.04783150892767</v>
       </c>
       <c r="D9">
-        <v>2.00221860480393</v>
+        <v>2.884444526798223</v>
       </c>
       <c r="E9">
-        <v>6.388967723760597</v>
+        <v>11.52063539187909</v>
       </c>
       <c r="F9">
-        <v>51.70777326618548</v>
+        <v>66.57031601690255</v>
       </c>
       <c r="G9">
-        <v>2.135191767321189</v>
+        <v>3.849943044671971</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.581898929498989</v>
+        <v>11.61877394528605</v>
       </c>
       <c r="K9">
-        <v>28.42484105387567</v>
+        <v>31.07859689671301</v>
       </c>
       <c r="L9">
-        <v>4.649943182942303</v>
+        <v>8.25848843378585</v>
       </c>
       <c r="M9">
-        <v>20.98865586148688</v>
+        <v>27.61392195578066</v>
       </c>
       <c r="N9">
-        <v>15.84900896112118</v>
+        <v>24.59306061955077</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.161598384583209</v>
+        <v>12.07183847743951</v>
       </c>
       <c r="D10">
-        <v>1.892253836683168</v>
+        <v>2.909764684265369</v>
       </c>
       <c r="E10">
-        <v>6.389327822764808</v>
+        <v>11.48895235577394</v>
       </c>
       <c r="F10">
-        <v>54.15462991058165</v>
+        <v>66.72503830568924</v>
       </c>
       <c r="G10">
-        <v>2.11094591440115</v>
+        <v>3.842551700278513</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.508521574285931</v>
+        <v>11.57925378376475</v>
       </c>
       <c r="K10">
-        <v>30.6723499675629</v>
+        <v>31.42042312887799</v>
       </c>
       <c r="L10">
-        <v>4.633882954578346</v>
+        <v>8.249286827952748</v>
       </c>
       <c r="M10">
-        <v>22.27535303100375</v>
+        <v>27.71944061532322</v>
       </c>
       <c r="N10">
-        <v>15.42154497746736</v>
+        <v>24.48995451656022</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.369024836717962</v>
+        <v>12.0852162898052</v>
       </c>
       <c r="D11">
-        <v>1.844816660872772</v>
+        <v>2.921077991876084</v>
       </c>
       <c r="E11">
-        <v>6.392446154623658</v>
+        <v>11.475717617664</v>
       </c>
       <c r="F11">
-        <v>55.31760781571496</v>
+        <v>66.81051042518901</v>
       </c>
       <c r="G11">
-        <v>2.099894074846643</v>
+        <v>3.839340240212544</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.477910352024822</v>
+        <v>11.56242695157824</v>
       </c>
       <c r="K11">
-        <v>31.68493867241915</v>
+        <v>31.5829092846173</v>
       </c>
       <c r="L11">
-        <v>4.627057171178968</v>
+        <v>8.245335348894606</v>
       </c>
       <c r="M11">
-        <v>22.8651060312123</v>
+        <v>27.77340886371552</v>
       </c>
       <c r="N11">
-        <v>15.23112755841416</v>
+        <v>24.44518993629972</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.448193938736534</v>
+        <v>12.09063388998308</v>
       </c>
       <c r="D12">
-        <v>1.827336521682029</v>
+        <v>2.925332992417013</v>
       </c>
       <c r="E12">
-        <v>6.394075075622929</v>
+        <v>11.47087485035055</v>
       </c>
       <c r="F12">
-        <v>55.76579135768901</v>
+        <v>66.84504343836748</v>
       </c>
       <c r="G12">
-        <v>2.095696926558442</v>
+        <v>3.838145677435276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.466738417548562</v>
+        <v>11.55622011021612</v>
       </c>
       <c r="K12">
-        <v>32.06719489434389</v>
+        <v>31.64540434541426</v>
       </c>
       <c r="L12">
-        <v>4.624544604308182</v>
+        <v>8.243872557610542</v>
       </c>
       <c r="M12">
-        <v>23.08918067085091</v>
+        <v>27.7946953725359</v>
       </c>
       <c r="N12">
-        <v>15.15962284580416</v>
+        <v>24.42854574907623</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.431114853997247</v>
+        <v>12.08945149878552</v>
       </c>
       <c r="D13">
-        <v>1.83107749503626</v>
+        <v>2.924417890451896</v>
       </c>
       <c r="E13">
-        <v>6.393703925652503</v>
+        <v>11.47191032053408</v>
       </c>
       <c r="F13">
-        <v>55.66890917957714</v>
+        <v>66.83750984834059</v>
       </c>
       <c r="G13">
-        <v>2.096601550228266</v>
+        <v>3.838401991987391</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.469125431445086</v>
+        <v>11.55754952746652</v>
       </c>
       <c r="K13">
-        <v>31.98491728542258</v>
+        <v>31.63190264578509</v>
       </c>
       <c r="L13">
-        <v>4.625082459386283</v>
+        <v>8.244186106280287</v>
       </c>
       <c r="M13">
-        <v>23.04088641975037</v>
+        <v>27.79007328282939</v>
       </c>
       <c r="N13">
-        <v>15.17499539267371</v>
+        <v>24.43211671606934</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.375525333107786</v>
+        <v>12.08565496033515</v>
       </c>
       <c r="D14">
-        <v>1.843368097239471</v>
+        <v>2.921428634497587</v>
       </c>
       <c r="E14">
-        <v>6.392571042359998</v>
+        <v>11.4753158170772</v>
       </c>
       <c r="F14">
-        <v>55.35431998357215</v>
+        <v>66.81330808068964</v>
       </c>
       <c r="G14">
-        <v>2.09954907039608</v>
+        <v>3.83924153183922</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.47698267696203</v>
+        <v>11.56191300417634</v>
       </c>
       <c r="K14">
-        <v>31.71640926896246</v>
+        <v>31.5880316833716</v>
       </c>
       <c r="L14">
-        <v>4.626848992430961</v>
+        <v>8.24521433270465</v>
       </c>
       <c r="M14">
-        <v>22.88352491673271</v>
+        <v>27.77514313457542</v>
       </c>
       <c r="N14">
-        <v>15.22523258185724</v>
+        <v>24.44381445458926</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.341557791168645</v>
+        <v>12.08337522209914</v>
       </c>
       <c r="D15">
-        <v>1.850963344702373</v>
+        <v>2.919593849714559</v>
       </c>
       <c r="E15">
-        <v>6.391936214959464</v>
+        <v>11.47742376954143</v>
       </c>
       <c r="F15">
-        <v>55.16266017187738</v>
+        <v>66.79876582401052</v>
       </c>
       <c r="G15">
-        <v>2.101352654402745</v>
+        <v>3.83975857585463</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.481850857777367</v>
+        <v>11.56460725044868</v>
       </c>
       <c r="K15">
-        <v>31.55179405731761</v>
+        <v>31.56128392321362</v>
       </c>
       <c r="L15">
-        <v>4.627940557111042</v>
+        <v>8.245848515452368</v>
       </c>
       <c r="M15">
-        <v>22.78723831642886</v>
+        <v>27.76610841089102</v>
       </c>
       <c r="N15">
-        <v>15.25608360488285</v>
+        <v>24.45101965125989</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.148126507235316</v>
+        <v>12.07101351640017</v>
       </c>
       <c r="D16">
-        <v>1.895414692897144</v>
+        <v>2.909021240321445</v>
       </c>
       <c r="E16">
-        <v>6.389185399340443</v>
+        <v>11.48984094278237</v>
       </c>
       <c r="F16">
-        <v>54.0796797750891</v>
+        <v>66.71975589852761</v>
       </c>
       <c r="G16">
-        <v>2.111667004582154</v>
+        <v>3.842764600257607</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.510579574376512</v>
+        <v>11.58037658437868</v>
       </c>
       <c r="K16">
-        <v>30.60599382241874</v>
+        <v>31.40994153219332</v>
       </c>
       <c r="L16">
-        <v>4.634338949082601</v>
+        <v>8.249549769380424</v>
       </c>
       <c r="M16">
-        <v>22.23690838908406</v>
+        <v>27.71603306299876</v>
       </c>
       <c r="N16">
-        <v>15.43407201349751</v>
+        <v>24.49292299379589</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.03051319305858</v>
+        <v>12.06405825041397</v>
       </c>
       <c r="D17">
-        <v>1.923414568000643</v>
+        <v>2.902483055383287</v>
       </c>
       <c r="E17">
-        <v>6.388270153361221</v>
+        <v>11.49775987157276</v>
       </c>
       <c r="F17">
-        <v>53.42847783915202</v>
+        <v>66.67514878319311</v>
       </c>
       <c r="G17">
-        <v>2.117982946176094</v>
+        <v>3.844647239831963</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.52892712418041</v>
+        <v>11.59034508642516</v>
       </c>
       <c r="K17">
-        <v>30.02338483976754</v>
+        <v>31.31885991939509</v>
       </c>
       <c r="L17">
-        <v>4.63838912834554</v>
+        <v>8.251880287610456</v>
       </c>
       <c r="M17">
-        <v>21.90049151239849</v>
+        <v>27.68683631013688</v>
       </c>
       <c r="N17">
-        <v>15.54430784224195</v>
+        <v>24.51917687811694</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.963237647768553</v>
+        <v>12.06028913659435</v>
       </c>
       <c r="D18">
-        <v>1.939754231299118</v>
+        <v>2.898703150665121</v>
       </c>
       <c r="E18">
-        <v>6.388020264243316</v>
+        <v>11.50242553939201</v>
       </c>
       <c r="F18">
-        <v>53.05857524029729</v>
+        <v>66.6509124393876</v>
       </c>
       <c r="G18">
-        <v>2.121614216531809</v>
+        <v>3.845744296762486</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.539739227818187</v>
+        <v>11.59618707495457</v>
       </c>
       <c r="K18">
-        <v>29.68733979852179</v>
+        <v>31.26713240468282</v>
       </c>
       <c r="L18">
-        <v>4.640763640614722</v>
+        <v>8.253242809963346</v>
       </c>
       <c r="M18">
-        <v>21.70739978988092</v>
+        <v>27.67060533133375</v>
       </c>
       <c r="N18">
-        <v>15.60809071222587</v>
+        <v>24.53447876270511</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.940522228894878</v>
+        <v>12.05905276119995</v>
       </c>
       <c r="D19">
-        <v>1.945324094572986</v>
+        <v>2.897420011466875</v>
       </c>
       <c r="E19">
-        <v>6.38798249358384</v>
+        <v>11.50402431717317</v>
       </c>
       <c r="F19">
-        <v>52.93411505050762</v>
+        <v>66.64295045952575</v>
       </c>
       <c r="G19">
-        <v>2.122843693521918</v>
+        <v>3.846118187014262</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.543443914130378</v>
+        <v>11.59818369713645</v>
       </c>
       <c r="K19">
-        <v>29.57339370066224</v>
+        <v>31.24973293027815</v>
       </c>
       <c r="L19">
-        <v>4.64157524720294</v>
+        <v>8.25370793190015</v>
       </c>
       <c r="M19">
-        <v>21.64208972242792</v>
+        <v>27.66520659612378</v>
       </c>
       <c r="N19">
-        <v>15.62975098747334</v>
+        <v>24.53969431121183</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.042994511754317</v>
+        <v>12.06477471488588</v>
       </c>
       <c r="D20">
-        <v>1.920408935671219</v>
+        <v>2.903181052539793</v>
       </c>
       <c r="E20">
-        <v>6.388338804096888</v>
+        <v>11.49690541271728</v>
       </c>
       <c r="F20">
-        <v>53.49731398720832</v>
+        <v>66.67975028726806</v>
       </c>
       <c r="G20">
-        <v>2.117310817558321</v>
+        <v>3.844445359801526</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.526947036829946</v>
+        <v>11.58927270950428</v>
       </c>
       <c r="K20">
-        <v>30.08550098870822</v>
+        <v>31.32848766428603</v>
       </c>
       <c r="L20">
-        <v>4.637953306643928</v>
+        <v>8.25162991694431</v>
       </c>
       <c r="M20">
-        <v>21.9362610108346</v>
+        <v>27.6898862227677</v>
       </c>
       <c r="N20">
-        <v>15.53253379879572</v>
+        <v>24.51636127179289</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.391835985531799</v>
+        <v>12.08676056445448</v>
       </c>
       <c r="D21">
-        <v>1.83974385267007</v>
+        <v>2.922307438359527</v>
       </c>
       <c r="E21">
-        <v>6.392891435956829</v>
+        <v>11.47431095883254</v>
       </c>
       <c r="F21">
-        <v>55.44650541622942</v>
+        <v>66.82035796119787</v>
       </c>
       <c r="G21">
-        <v>2.098683717185297</v>
+        <v>3.838994355049981</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.474663225638086</v>
+        <v>11.56062686735073</v>
       </c>
       <c r="K21">
-        <v>31.79530650923881</v>
+        <v>31.60089178224993</v>
       </c>
       <c r="L21">
-        <v>4.626328129640587</v>
+        <v>8.24491140842245</v>
       </c>
       <c r="M21">
-        <v>22.92972428050593</v>
+        <v>27.77950548487689</v>
       </c>
       <c r="N21">
-        <v>15.21046011887961</v>
+        <v>24.44037021113067</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.62348319718083</v>
+        <v>12.10317869491049</v>
       </c>
       <c r="D22">
-        <v>1.864217741706735</v>
+        <v>2.9346381700051</v>
       </c>
       <c r="E22">
-        <v>6.398491801020399</v>
+        <v>11.46052868218637</v>
       </c>
       <c r="F22">
-        <v>56.76621633502366</v>
+        <v>66.9248787620528</v>
       </c>
       <c r="G22">
-        <v>2.086434350214205</v>
+        <v>3.83555733311013</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.442953101366782</v>
+        <v>11.54286738484905</v>
       </c>
       <c r="K22">
-        <v>32.90602054116921</v>
+        <v>31.78452917379271</v>
       </c>
       <c r="L22">
-        <v>4.61915341938413</v>
+        <v>8.240715947735353</v>
       </c>
       <c r="M22">
-        <v>23.58347221457354</v>
+        <v>27.84302627349031</v>
       </c>
       <c r="N22">
-        <v>15.00349707322451</v>
+        <v>24.39249603069897</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.499492656246765</v>
+        <v>12.09422913768536</v>
       </c>
       <c r="D23">
-        <v>1.819307049902254</v>
+        <v>2.928072411085709</v>
       </c>
       <c r="E23">
-        <v>6.395254052350347</v>
+        <v>11.46779461125877</v>
       </c>
       <c r="F23">
-        <v>56.05742668844578</v>
+        <v>66.86794036392681</v>
       </c>
       <c r="G23">
-        <v>2.092982290184437</v>
+        <v>3.837380300950661</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.459644028347693</v>
+        <v>11.55225804387596</v>
       </c>
       <c r="K23">
-        <v>32.31372430895041</v>
+        <v>31.68601912263065</v>
       </c>
       <c r="L23">
-        <v>4.622942711834178</v>
+        <v>8.242937309106177</v>
       </c>
       <c r="M23">
-        <v>23.23409135251483</v>
+        <v>27.80867411295315</v>
       </c>
       <c r="N23">
-        <v>15.11362326754305</v>
+        <v>24.41788368103227</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.037350645721737</v>
+        <v>12.06445008614915</v>
       </c>
       <c r="D24">
-        <v>1.921767035656249</v>
+        <v>2.90286555351098</v>
       </c>
       <c r="E24">
-        <v>6.388306908200716</v>
+        <v>11.49729136165432</v>
       </c>
       <c r="F24">
-        <v>53.46617924846703</v>
+        <v>66.6776655587169</v>
       </c>
       <c r="G24">
-        <v>2.117614685787507</v>
+        <v>3.844536583957147</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.527841414082792</v>
+        <v>11.58975718545125</v>
       </c>
       <c r="K24">
-        <v>30.05742170487069</v>
+        <v>31.32413297521868</v>
       </c>
       <c r="L24">
-        <v>4.638150198547631</v>
+        <v>8.251743038878931</v>
       </c>
       <c r="M24">
-        <v>21.92008863501475</v>
+        <v>27.68850562913061</v>
       </c>
       <c r="N24">
-        <v>15.53785557818101</v>
+        <v>24.51763355895863</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.553083275072604</v>
+        <v>12.04117781078551</v>
       </c>
       <c r="D25">
-        <v>2.044449214487318</v>
+        <v>2.884380683298758</v>
       </c>
       <c r="E25">
-        <v>6.391316272448545</v>
+        <v>11.53335059471315</v>
       </c>
       <c r="F25">
-        <v>50.8475578916351</v>
+        <v>66.52672330440045</v>
       </c>
       <c r="G25">
-        <v>2.144152563608206</v>
+        <v>3.852799799335243</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.61125033792002</v>
+        <v>11.63435108761463</v>
       </c>
       <c r="K25">
-        <v>27.58760819604423</v>
+        <v>30.95916278267711</v>
       </c>
       <c r="L25">
-        <v>4.656266210632611</v>
+        <v>8.262085883133265</v>
       </c>
       <c r="M25">
-        <v>20.51834962344524</v>
+        <v>27.58040268922352</v>
       </c>
       <c r="N25">
-        <v>16.00992769168964</v>
+        <v>24.63292985880293</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.03168596926108</v>
+        <v>8.207905671575064</v>
       </c>
       <c r="D2">
-        <v>2.904077580570493</v>
+        <v>2.139751140898772</v>
       </c>
       <c r="E2">
-        <v>11.56357016728354</v>
+        <v>6.401837090030499</v>
       </c>
       <c r="F2">
-        <v>66.46222461289308</v>
+        <v>49.0539356155612</v>
       </c>
       <c r="G2">
-        <v>3.859358581380337</v>
+        <v>2.163935846045536</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.67077120899831</v>
+        <v>6.680502444438925</v>
       </c>
       <c r="K2">
-        <v>30.71353641962546</v>
+        <v>25.73502150275181</v>
       </c>
       <c r="L2">
-        <v>8.270434650084781</v>
+        <v>4.670996581517839</v>
       </c>
       <c r="M2">
-        <v>27.51952848176111</v>
+        <v>19.49835823844371</v>
       </c>
       <c r="N2">
-        <v>24.7244758906123</v>
+        <v>16.36975037973735</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.0300295481218</v>
+        <v>7.981062089295593</v>
       </c>
       <c r="D3">
-        <v>2.918247984212446</v>
+        <v>2.206686045524416</v>
       </c>
       <c r="E3">
-        <v>11.58634980321889</v>
+        <v>6.413838109382571</v>
       </c>
       <c r="F3">
-        <v>66.44751764270458</v>
+        <v>47.91583325095501</v>
       </c>
       <c r="G3">
-        <v>3.864102976157008</v>
+        <v>2.17760623717113</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.69770104946853</v>
+        <v>6.732077216990316</v>
       </c>
       <c r="K3">
-        <v>30.5620569267584</v>
+        <v>24.45963438886452</v>
       </c>
       <c r="L3">
-        <v>8.276553785760727</v>
+        <v>4.681820428729896</v>
       </c>
       <c r="M3">
-        <v>27.49003223578289</v>
+        <v>18.81541724078967</v>
       </c>
       <c r="N3">
-        <v>24.79068447089651</v>
+        <v>16.62132957754956</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.03136910159975</v>
+        <v>7.845355055385117</v>
       </c>
       <c r="D4">
-        <v>2.927352279820081</v>
+        <v>2.24879290373713</v>
       </c>
       <c r="E4">
-        <v>11.60147443058182</v>
+        <v>6.423518815411351</v>
       </c>
       <c r="F4">
-        <v>66.45274908543676</v>
+        <v>47.25349664871228</v>
       </c>
       <c r="G4">
-        <v>3.867164866412808</v>
+        <v>2.186161112725738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.71534830569874</v>
+        <v>6.765966750112981</v>
       </c>
       <c r="K4">
-        <v>30.47660953590291</v>
+        <v>23.66803444564309</v>
       </c>
       <c r="L4">
-        <v>8.280539600124758</v>
+        <v>4.688874809017289</v>
       </c>
       <c r="M4">
-        <v>27.47774069103881</v>
+        <v>18.40078929200667</v>
       </c>
       <c r="N4">
-        <v>24.83339750457418</v>
+        <v>16.77967387048306</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.03250757667621</v>
+        <v>7.790971740704713</v>
       </c>
       <c r="D5">
-        <v>2.931163584074031</v>
+        <v>2.26619020372789</v>
       </c>
       <c r="E5">
-        <v>11.60792448270976</v>
+        <v>6.428032784164041</v>
       </c>
       <c r="F5">
-        <v>66.45845961291427</v>
+        <v>46.99252608779963</v>
       </c>
       <c r="G5">
-        <v>3.868450187912197</v>
+        <v>2.189692014460195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.72281989401679</v>
+        <v>6.780327056243463</v>
       </c>
       <c r="K5">
-        <v>30.44371441908522</v>
+        <v>23.34359710875675</v>
       </c>
       <c r="L5">
-        <v>8.282221516609113</v>
+        <v>4.691851510652644</v>
       </c>
       <c r="M5">
-        <v>27.47419754107639</v>
+        <v>18.23312869677428</v>
       </c>
       <c r="N5">
-        <v>24.85132226543892</v>
+        <v>16.8451857704486</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.03273240588538</v>
+        <v>7.781997533669102</v>
       </c>
       <c r="D6">
-        <v>2.931802555004288</v>
+        <v>2.26909306930508</v>
       </c>
       <c r="E6">
-        <v>11.60901283696563</v>
+        <v>6.428816345714821</v>
       </c>
       <c r="F6">
-        <v>66.45962372786208</v>
+        <v>46.94972526466628</v>
       </c>
       <c r="G6">
-        <v>3.868665888668062</v>
+        <v>2.190281134259342</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.72407748331712</v>
+        <v>6.782744558904984</v>
       </c>
       <c r="K6">
-        <v>30.43836914269263</v>
+        <v>23.28962242002013</v>
       </c>
       <c r="L6">
-        <v>8.282504285417859</v>
+        <v>4.692351931181605</v>
       </c>
       <c r="M6">
-        <v>27.47369778421371</v>
+        <v>18.20537149660843</v>
       </c>
       <c r="N6">
-        <v>24.85433001585317</v>
+        <v>16.85612384668671</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.03138205624531</v>
+        <v>7.844617876226061</v>
       </c>
       <c r="D7">
-        <v>2.92740327085269</v>
+        <v>2.249026580604513</v>
       </c>
       <c r="E7">
-        <v>11.60156025692355</v>
+        <v>6.423577404229149</v>
       </c>
       <c r="F7">
-        <v>66.4528116209144</v>
+        <v>47.24994122296977</v>
       </c>
       <c r="G7">
-        <v>3.867182048354507</v>
+        <v>2.186208545369281</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.71544793498931</v>
+        <v>6.766158201926277</v>
       </c>
       <c r="K7">
-        <v>30.47615807543935</v>
+        <v>23.66366604234519</v>
       </c>
       <c r="L7">
-        <v>8.280562049326164</v>
+        <v>4.688914541763204</v>
       </c>
       <c r="M7">
-        <v>27.47768696953299</v>
+        <v>18.39852270712055</v>
       </c>
       <c r="N7">
-        <v>24.83363714242247</v>
+        <v>16.780553381074</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.03062580394368</v>
+        <v>8.128957912486126</v>
       </c>
       <c r="D8">
-        <v>2.908879604870329</v>
+        <v>2.162609962411995</v>
       </c>
       <c r="E8">
-        <v>11.57118874232892</v>
+        <v>6.405487450846667</v>
       </c>
       <c r="F8">
-        <v>66.4541896702564</v>
+        <v>48.65380616481907</v>
       </c>
       <c r="G8">
-        <v>3.8609636568892</v>
+        <v>2.168618584221166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.67982608160458</v>
+        <v>6.697818519026207</v>
       </c>
       <c r="K8">
-        <v>30.6597520954478</v>
+        <v>25.29717985380677</v>
       </c>
       <c r="L8">
-        <v>8.272497176750626</v>
+        <v>4.674643360358237</v>
       </c>
       <c r="M8">
-        <v>27.50815213604857</v>
+        <v>19.26196992485363</v>
       </c>
       <c r="N8">
-        <v>24.74687731695053</v>
+        <v>16.45569706669781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.04783150892767</v>
+        <v>8.714413241544959</v>
       </c>
       <c r="D9">
-        <v>2.884444526798223</v>
+        <v>2.002218604803865</v>
       </c>
       <c r="E9">
-        <v>11.52063539187909</v>
+        <v>6.388967723760541</v>
       </c>
       <c r="F9">
-        <v>66.57031601690255</v>
+        <v>51.70777326618536</v>
       </c>
       <c r="G9">
-        <v>3.849943044671971</v>
+        <v>2.135191767321186</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.61877394528605</v>
+        <v>6.58189892949899</v>
       </c>
       <c r="K9">
-        <v>31.07859689671301</v>
+        <v>28.42484105387563</v>
       </c>
       <c r="L9">
-        <v>8.25848843378585</v>
+        <v>4.649943182942237</v>
       </c>
       <c r="M9">
-        <v>27.61392195578066</v>
+        <v>20.98865586148684</v>
       </c>
       <c r="N9">
-        <v>24.59306061955077</v>
+        <v>15.84900896112111</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.07183847743951</v>
+        <v>9.161598384583286</v>
       </c>
       <c r="D10">
-        <v>2.909764684265369</v>
+        <v>1.892253836683125</v>
       </c>
       <c r="E10">
-        <v>11.48895235577394</v>
+        <v>6.389327822764809</v>
       </c>
       <c r="F10">
-        <v>66.72503830568924</v>
+        <v>54.15462991058165</v>
       </c>
       <c r="G10">
-        <v>3.842551700278513</v>
+        <v>2.110945914401158</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.57925378376475</v>
+        <v>6.508521574285857</v>
       </c>
       <c r="K10">
-        <v>31.42042312887799</v>
+        <v>30.6723499675629</v>
       </c>
       <c r="L10">
-        <v>8.249286827952748</v>
+        <v>4.633882954578342</v>
       </c>
       <c r="M10">
-        <v>27.71944061532322</v>
+        <v>22.27535303100372</v>
       </c>
       <c r="N10">
-        <v>24.48995451656022</v>
+        <v>15.42154497746729</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.0852162898052</v>
+        <v>9.369024836717925</v>
       </c>
       <c r="D11">
-        <v>2.921077991876084</v>
+        <v>1.844816660872864</v>
       </c>
       <c r="E11">
-        <v>11.475717617664</v>
+        <v>6.392446154623721</v>
       </c>
       <c r="F11">
-        <v>66.81051042518901</v>
+        <v>55.31760781571484</v>
       </c>
       <c r="G11">
-        <v>3.839340240212544</v>
+        <v>2.099894074847162</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.56242695157824</v>
+        <v>6.477910352024926</v>
       </c>
       <c r="K11">
-        <v>31.5829092846173</v>
+        <v>31.68493867241908</v>
       </c>
       <c r="L11">
-        <v>8.245335348894606</v>
+        <v>4.627057171178903</v>
       </c>
       <c r="M11">
-        <v>27.77340886371552</v>
+        <v>22.86510603121232</v>
       </c>
       <c r="N11">
-        <v>24.44518993629972</v>
+        <v>15.23112755841428</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.09063388998308</v>
+        <v>9.448193938736548</v>
       </c>
       <c r="D12">
-        <v>2.925332992417013</v>
+        <v>1.827336521682102</v>
       </c>
       <c r="E12">
-        <v>11.47087485035055</v>
+        <v>6.394075075623038</v>
       </c>
       <c r="F12">
-        <v>66.84504343836748</v>
+        <v>55.76579135768898</v>
       </c>
       <c r="G12">
-        <v>3.838145677435276</v>
+        <v>2.095696926558439</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.55622011021612</v>
+        <v>6.466738417548545</v>
       </c>
       <c r="K12">
-        <v>31.64540434541426</v>
+        <v>32.06719489434385</v>
       </c>
       <c r="L12">
-        <v>8.243872557610542</v>
+        <v>4.624544604308181</v>
       </c>
       <c r="M12">
-        <v>27.7946953725359</v>
+        <v>23.08918067085092</v>
       </c>
       <c r="N12">
-        <v>24.42854574907623</v>
+        <v>15.15962284580422</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.08945149878552</v>
+        <v>9.431114853997286</v>
       </c>
       <c r="D13">
-        <v>2.924417890451896</v>
+        <v>1.831077495036148</v>
       </c>
       <c r="E13">
-        <v>11.47191032053408</v>
+        <v>6.393703925652449</v>
       </c>
       <c r="F13">
-        <v>66.83750984834059</v>
+        <v>55.66890917957701</v>
       </c>
       <c r="G13">
-        <v>3.838401991987391</v>
+        <v>2.096601550228406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.55754952746652</v>
+        <v>6.469125431445027</v>
       </c>
       <c r="K13">
-        <v>31.63190264578509</v>
+        <v>31.98491728542259</v>
       </c>
       <c r="L13">
-        <v>8.244186106280287</v>
+        <v>4.625082459386247</v>
       </c>
       <c r="M13">
-        <v>27.79007328282939</v>
+        <v>23.04088641975032</v>
       </c>
       <c r="N13">
-        <v>24.43211671606934</v>
+        <v>15.17499539267366</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.08565496033515</v>
+        <v>9.375525333107847</v>
       </c>
       <c r="D14">
-        <v>2.921428634497587</v>
+        <v>1.843368097239492</v>
       </c>
       <c r="E14">
-        <v>11.4753158170772</v>
+        <v>6.392571042359986</v>
       </c>
       <c r="F14">
-        <v>66.81330808068964</v>
+        <v>55.3543199835721</v>
       </c>
       <c r="G14">
-        <v>3.83924153183922</v>
+        <v>2.099549070395686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.56191300417634</v>
+        <v>6.476982676962008</v>
       </c>
       <c r="K14">
-        <v>31.5880316833716</v>
+        <v>31.71640926896245</v>
       </c>
       <c r="L14">
-        <v>8.24521433270465</v>
+        <v>4.626848992430927</v>
       </c>
       <c r="M14">
-        <v>27.77514313457542</v>
+        <v>22.8835249167327</v>
       </c>
       <c r="N14">
-        <v>24.44381445458926</v>
+        <v>15.22523258185721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.08337522209914</v>
+        <v>9.341557791168647</v>
       </c>
       <c r="D15">
-        <v>2.919593849714559</v>
+        <v>1.850963344702465</v>
       </c>
       <c r="E15">
-        <v>11.47742376954143</v>
+        <v>6.391936214959573</v>
       </c>
       <c r="F15">
-        <v>66.79876582401052</v>
+        <v>55.16266017187755</v>
       </c>
       <c r="G15">
-        <v>3.83975857585463</v>
+        <v>2.101352654402483</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.56460725044868</v>
+        <v>6.481850857777487</v>
       </c>
       <c r="K15">
-        <v>31.56128392321362</v>
+        <v>31.55179405731759</v>
       </c>
       <c r="L15">
-        <v>8.245848515452368</v>
+        <v>4.627940557111175</v>
       </c>
       <c r="M15">
-        <v>27.76610841089102</v>
+        <v>22.78723831642892</v>
       </c>
       <c r="N15">
-        <v>24.45101965125989</v>
+        <v>15.25608360488296</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.07101351640017</v>
+        <v>9.148126507235316</v>
       </c>
       <c r="D16">
-        <v>2.909021240321445</v>
+        <v>1.895414692897154</v>
       </c>
       <c r="E16">
-        <v>11.48984094278237</v>
+        <v>6.389185399340535</v>
       </c>
       <c r="F16">
-        <v>66.71975589852761</v>
+        <v>54.07967977508918</v>
       </c>
       <c r="G16">
-        <v>3.842764600257607</v>
+        <v>2.111667004582292</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.58037658437868</v>
+        <v>6.510579574376559</v>
       </c>
       <c r="K16">
-        <v>31.40994153219332</v>
+        <v>30.60599382241876</v>
       </c>
       <c r="L16">
-        <v>8.249549769380424</v>
+        <v>4.634338949082633</v>
       </c>
       <c r="M16">
-        <v>27.71603306299876</v>
+        <v>22.23690838908407</v>
       </c>
       <c r="N16">
-        <v>24.49292299379589</v>
+        <v>15.43407201349756</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.06405825041397</v>
+        <v>9.030513193058731</v>
       </c>
       <c r="D17">
-        <v>2.902483055383287</v>
+        <v>1.923414568000598</v>
       </c>
       <c r="E17">
-        <v>11.49775987157276</v>
+        <v>6.388270153361162</v>
       </c>
       <c r="F17">
-        <v>66.67514878319311</v>
+        <v>53.42847783915188</v>
       </c>
       <c r="G17">
-        <v>3.844647239831963</v>
+        <v>2.117982946176351</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.59034508642516</v>
+        <v>6.528927124180352</v>
       </c>
       <c r="K17">
-        <v>31.31885991939509</v>
+        <v>30.02338483976753</v>
       </c>
       <c r="L17">
-        <v>8.251880287610456</v>
+        <v>4.638389128345339</v>
       </c>
       <c r="M17">
-        <v>27.68683631013688</v>
+        <v>21.90049151239844</v>
       </c>
       <c r="N17">
-        <v>24.51917687811694</v>
+        <v>15.54430784224183</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.06028913659435</v>
+        <v>8.963237647768684</v>
       </c>
       <c r="D18">
-        <v>2.898703150665121</v>
+        <v>1.939754231299173</v>
       </c>
       <c r="E18">
-        <v>11.50242553939201</v>
+        <v>6.388020264243378</v>
       </c>
       <c r="F18">
-        <v>66.6509124393876</v>
+        <v>53.05857524029744</v>
       </c>
       <c r="G18">
-        <v>3.845744296762486</v>
+        <v>2.121614216532082</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.59618707495457</v>
+        <v>6.539739227818258</v>
       </c>
       <c r="K18">
-        <v>31.26713240468282</v>
+        <v>29.6873397985218</v>
       </c>
       <c r="L18">
-        <v>8.253242809963346</v>
+        <v>4.640763640614821</v>
       </c>
       <c r="M18">
-        <v>27.67060533133375</v>
+        <v>21.70739978988096</v>
       </c>
       <c r="N18">
-        <v>24.53447876270511</v>
+        <v>15.60809071222597</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.05905276119995</v>
+        <v>8.94052222889486</v>
       </c>
       <c r="D19">
-        <v>2.897420011466875</v>
+        <v>1.945324094573142</v>
       </c>
       <c r="E19">
-        <v>11.50402431717317</v>
+        <v>6.38798249358379</v>
       </c>
       <c r="F19">
-        <v>66.64295045952575</v>
+        <v>52.93411505050746</v>
       </c>
       <c r="G19">
-        <v>3.846118187014262</v>
+        <v>2.122843693521918</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.59818369713645</v>
+        <v>6.543443914130378</v>
       </c>
       <c r="K19">
-        <v>31.24973293027815</v>
+        <v>29.57339370066224</v>
       </c>
       <c r="L19">
-        <v>8.25370793190015</v>
+        <v>4.641575247202939</v>
       </c>
       <c r="M19">
-        <v>27.66520659612378</v>
+        <v>21.64208972242788</v>
       </c>
       <c r="N19">
-        <v>24.53969431121183</v>
+        <v>15.6297509874733</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.06477471488588</v>
+        <v>9.042994511754298</v>
       </c>
       <c r="D20">
-        <v>2.903181052539793</v>
+        <v>1.920408935671308</v>
       </c>
       <c r="E20">
-        <v>11.49690541271728</v>
+        <v>6.388338804096952</v>
       </c>
       <c r="F20">
-        <v>66.67975028726806</v>
+        <v>53.49731398720836</v>
       </c>
       <c r="G20">
-        <v>3.844445359801526</v>
+        <v>2.1173108175582</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.58927270950428</v>
+        <v>6.526947036829974</v>
       </c>
       <c r="K20">
-        <v>31.32848766428603</v>
+        <v>30.0855009887082</v>
       </c>
       <c r="L20">
-        <v>8.25162991694431</v>
+        <v>4.637953306643963</v>
       </c>
       <c r="M20">
-        <v>27.6898862227677</v>
+        <v>21.93626101083463</v>
       </c>
       <c r="N20">
-        <v>24.51636127179289</v>
+        <v>15.53253379879579</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.08676056445448</v>
+        <v>9.391835985531841</v>
       </c>
       <c r="D21">
-        <v>2.922307438359527</v>
+        <v>1.839743852670018</v>
       </c>
       <c r="E21">
-        <v>11.47431095883254</v>
+        <v>6.392891435956831</v>
       </c>
       <c r="F21">
-        <v>66.82035796119787</v>
+        <v>55.44650541622945</v>
       </c>
       <c r="G21">
-        <v>3.838994355049981</v>
+        <v>2.098683717185297</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.56062686735073</v>
+        <v>6.474663225638112</v>
       </c>
       <c r="K21">
-        <v>31.60089178224993</v>
+        <v>31.79530650923882</v>
       </c>
       <c r="L21">
-        <v>8.24491140842245</v>
+        <v>4.626328129640554</v>
       </c>
       <c r="M21">
-        <v>27.77950548487689</v>
+        <v>22.92972428050593</v>
       </c>
       <c r="N21">
-        <v>24.44037021113067</v>
+        <v>15.2104601188797</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.10317869491049</v>
+        <v>9.623483197180823</v>
       </c>
       <c r="D22">
-        <v>2.9346381700051</v>
+        <v>1.86421774170648</v>
       </c>
       <c r="E22">
-        <v>11.46052868218637</v>
+        <v>6.398491801020256</v>
       </c>
       <c r="F22">
-        <v>66.9248787620528</v>
+        <v>56.76621633502358</v>
       </c>
       <c r="G22">
-        <v>3.83555733311013</v>
+        <v>2.086434350214332</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.54286738484905</v>
+        <v>6.442953101366763</v>
       </c>
       <c r="K22">
-        <v>31.78452917379271</v>
+        <v>32.90602054116925</v>
       </c>
       <c r="L22">
-        <v>8.240715947735353</v>
+        <v>4.61915341938403</v>
       </c>
       <c r="M22">
-        <v>27.84302627349031</v>
+        <v>23.58347221457352</v>
       </c>
       <c r="N22">
-        <v>24.39249603069897</v>
+        <v>15.00349707322446</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.09422913768536</v>
+        <v>9.499492656246849</v>
       </c>
       <c r="D23">
-        <v>2.928072411085709</v>
+        <v>1.819307049902117</v>
       </c>
       <c r="E23">
-        <v>11.46779461125877</v>
+        <v>6.395254052350398</v>
       </c>
       <c r="F23">
-        <v>66.86794036392681</v>
+        <v>56.05742668844582</v>
       </c>
       <c r="G23">
-        <v>3.837380300950661</v>
+        <v>2.092982290184575</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.55225804387596</v>
+        <v>6.459644028347748</v>
       </c>
       <c r="K23">
-        <v>31.68601912263065</v>
+        <v>32.31372430895036</v>
       </c>
       <c r="L23">
-        <v>8.242937309106177</v>
+        <v>4.622942711834179</v>
       </c>
       <c r="M23">
-        <v>27.80867411295315</v>
+        <v>23.23409135251484</v>
       </c>
       <c r="N23">
-        <v>24.41788368103227</v>
+        <v>15.11362326754318</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.06445008614915</v>
+        <v>9.037350645721771</v>
       </c>
       <c r="D24">
-        <v>2.90286555351098</v>
+        <v>1.921767035656348</v>
       </c>
       <c r="E24">
-        <v>11.49729136165432</v>
+        <v>6.388306908200716</v>
       </c>
       <c r="F24">
-        <v>66.6776655587169</v>
+        <v>53.46617924846687</v>
       </c>
       <c r="G24">
-        <v>3.844536583957147</v>
+        <v>2.11761468578751</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.58975718545125</v>
+        <v>6.527841414082841</v>
       </c>
       <c r="K24">
-        <v>31.32413297521868</v>
+        <v>30.05742170487069</v>
       </c>
       <c r="L24">
-        <v>8.251743038878931</v>
+        <v>4.638150198547666</v>
       </c>
       <c r="M24">
-        <v>27.68850562913061</v>
+        <v>21.9200886350147</v>
       </c>
       <c r="N24">
-        <v>24.51763355895863</v>
+        <v>15.53785557818099</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.04117781078551</v>
+        <v>8.553083275072494</v>
       </c>
       <c r="D25">
-        <v>2.884380683298758</v>
+        <v>2.044449214487424</v>
       </c>
       <c r="E25">
-        <v>11.53335059471315</v>
+        <v>6.391316272448496</v>
       </c>
       <c r="F25">
-        <v>66.52672330440045</v>
+        <v>50.847557891635</v>
       </c>
       <c r="G25">
-        <v>3.852799799335243</v>
+        <v>2.144152563608073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.63435108761463</v>
+        <v>6.611250337919941</v>
       </c>
       <c r="K25">
-        <v>30.95916278267711</v>
+        <v>27.58760819604423</v>
       </c>
       <c r="L25">
-        <v>8.262085883133265</v>
+        <v>4.656266210632544</v>
       </c>
       <c r="M25">
-        <v>27.58040268922352</v>
+        <v>20.5183496234452</v>
       </c>
       <c r="N25">
-        <v>24.63292985880293</v>
+        <v>16.00992769168959</v>
       </c>
       <c r="O25">
         <v>0</v>
